--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Utah_Jazz__.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Utah_Jazz__.xlsx
@@ -588,22 +588,22 @@
         <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="G2" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H2" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I2" t="n">
-        <v>0.731</v>
+        <v>0.737</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -615,34 +615,34 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="N2" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O2" t="n">
-        <v>0.735</v>
+        <v>0.741</v>
       </c>
       <c r="P2" t="n">
-        <v>0.731</v>
+        <v>0.737</v>
       </c>
       <c r="Q2" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R2" t="n">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="S2" t="n">
-        <v>0.676</v>
+        <v>0.678</v>
       </c>
       <c r="T2" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="U2" t="n">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="V2" t="n">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="W2" t="n">
         <v>23</v>
@@ -651,16 +651,16 @@
         <v>22</v>
       </c>
       <c r="Y2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z2" t="n">
         <v>45</v>
       </c>
       <c r="AA2" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AB2" t="n">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3">
@@ -676,79 +676,79 @@
         <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>716</v>
+        <v>750</v>
       </c>
       <c r="G3" t="n">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="H3" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="I3" t="n">
-        <v>0.446</v>
+        <v>0.454</v>
       </c>
       <c r="J3" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K3" t="n">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="L3" t="n">
-        <v>0.337</v>
+        <v>0.341</v>
       </c>
       <c r="M3" t="n">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="N3" t="n">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="O3" t="n">
-        <v>0.537</v>
+        <v>0.549</v>
       </c>
       <c r="P3" t="n">
-        <v>0.523</v>
+        <v>0.532</v>
       </c>
       <c r="Q3" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="R3" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S3" t="n">
-        <v>0.885</v>
+        <v>0.889</v>
       </c>
       <c r="T3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U3" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="V3" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="W3" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X3" t="n">
         <v>38</v>
       </c>
       <c r="Y3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z3" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AA3" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB3" t="n">
-        <v>533</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4">
@@ -764,61 +764,61 @@
         <v>32</v>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n">
-        <v>695</v>
+        <v>723</v>
       </c>
       <c r="G4" t="n">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H4" t="n">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="I4" t="n">
-        <v>0.461</v>
+        <v>0.466</v>
       </c>
       <c r="J4" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K4" t="n">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="L4" t="n">
-        <v>0.408</v>
+        <v>0.411</v>
       </c>
       <c r="M4" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="N4" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="O4" t="n">
-        <v>0.514</v>
+        <v>0.524</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="Q4" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R4" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" t="n">
-        <v>0.922</v>
+        <v>0.923</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
       </c>
       <c r="U4" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="V4" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="W4" t="n">
         <v>44</v>
@@ -833,10 +833,10 @@
         <v>35</v>
       </c>
       <c r="AA4" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AB4" t="n">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5">
@@ -852,79 +852,79 @@
         <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>659</v>
+        <v>688</v>
       </c>
       <c r="G5" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H5" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I5" t="n">
-        <v>0.484</v>
+        <v>0.496</v>
       </c>
       <c r="J5" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K5" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L5" t="n">
-        <v>0.391</v>
+        <v>0.404</v>
       </c>
       <c r="M5" t="n">
+        <v>28</v>
+      </c>
+      <c r="N5" t="n">
+        <v>40</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>13</v>
+      </c>
+      <c r="R5" t="n">
+        <v>19</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="T5" t="n">
+        <v>23</v>
+      </c>
+      <c r="U5" t="n">
+        <v>89</v>
+      </c>
+      <c r="V5" t="n">
+        <v>112</v>
+      </c>
+      <c r="W5" t="n">
+        <v>54</v>
+      </c>
+      <c r="X5" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z5" t="n">
         <v>27</v>
       </c>
-      <c r="N5" t="n">
-        <v>39</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.6919999999999999</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.619</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>12</v>
-      </c>
-      <c r="R5" t="n">
-        <v>17</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="T5" t="n">
-        <v>21</v>
-      </c>
-      <c r="U5" t="n">
-        <v>85</v>
-      </c>
-      <c r="V5" t="n">
-        <v>106</v>
-      </c>
-      <c r="W5" t="n">
-        <v>47</v>
-      </c>
-      <c r="X5" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>26</v>
-      </c>
       <c r="AA5" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AB5" t="n">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6">
@@ -940,43 +940,43 @@
         <v>34</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="G6" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H6" t="n">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="I6" t="n">
-        <v>0.51</v>
+        <v>0.509</v>
       </c>
       <c r="J6" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K6" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L6" t="n">
-        <v>0.475</v>
+        <v>0.476</v>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N6" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O6" t="n">
-        <v>0.556</v>
+        <v>0.553</v>
       </c>
       <c r="P6" t="n">
-        <v>0.645</v>
+        <v>0.644</v>
       </c>
       <c r="Q6" t="n">
         <v>28</v>
@@ -991,28 +991,28 @@
         <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V6" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="W6" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="X6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
         <v>6</v>
       </c>
       <c r="Z6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB6" t="n">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7">
@@ -1028,43 +1028,43 @@
         <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>570</v>
+        <v>594</v>
       </c>
       <c r="G7" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H7" t="n">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="I7" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K7" t="n">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="L7" t="n">
-        <v>0.294</v>
+        <v>0.304</v>
       </c>
       <c r="M7" t="n">
         <v>61</v>
       </c>
       <c r="N7" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O7" t="n">
-        <v>0.496</v>
+        <v>0.492</v>
       </c>
       <c r="P7" t="n">
-        <v>0.462</v>
+        <v>0.469</v>
       </c>
       <c r="Q7" t="n">
         <v>38</v>
@@ -1079,28 +1079,28 @@
         <v>16</v>
       </c>
       <c r="U7" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="V7" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="W7" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X7" t="n">
         <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z7" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA7" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AB7" t="n">
-        <v>340</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8">
@@ -1116,64 +1116,64 @@
         <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>566</v>
+        <v>591</v>
       </c>
       <c r="G8" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H8" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I8" t="n">
-        <v>0.454</v>
+        <v>0.469</v>
       </c>
       <c r="J8" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K8" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L8" t="n">
-        <v>0.407</v>
+        <v>0.417</v>
       </c>
       <c r="M8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O8" t="n">
-        <v>0.643</v>
+        <v>0.667</v>
       </c>
       <c r="P8" t="n">
-        <v>0.617</v>
+        <v>0.634</v>
       </c>
       <c r="Q8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S8" t="n">
-        <v>0.889</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="T8" t="n">
         <v>11</v>
       </c>
       <c r="U8" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="V8" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="W8" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
@@ -1182,13 +1182,13 @@
         <v>3</v>
       </c>
       <c r="Z8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
         <v>40</v>
       </c>
       <c r="AB8" t="n">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9">
@@ -1290,31 +1290,31 @@
         <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I10" t="n">
-        <v>0.421</v>
+        <v>0.424</v>
       </c>
       <c r="J10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L10" t="n">
-        <v>0.278</v>
+        <v>0.289</v>
       </c>
       <c r="M10" t="n">
         <v>14</v>
@@ -1326,7 +1326,7 @@
         <v>0.667</v>
       </c>
       <c r="P10" t="n">
-        <v>0.509</v>
+        <v>0.517</v>
       </c>
       <c r="Q10" t="n">
         <v>12</v>
@@ -1341,10 +1341,10 @@
         <v>13</v>
       </c>
       <c r="U10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V10" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W10" t="n">
         <v>14</v>
@@ -1356,13 +1356,13 @@
         <v>3</v>
       </c>
       <c r="Z10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA10" t="n">
         <v>16</v>
       </c>
       <c r="AB10" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1378,43 +1378,43 @@
         <v>35</v>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="G11" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H11" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="I11" t="n">
-        <v>0.493</v>
+        <v>0.462</v>
       </c>
       <c r="J11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L11" t="n">
-        <v>0.478</v>
+        <v>0.434</v>
       </c>
       <c r="M11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N11" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O11" t="n">
-        <v>0.524</v>
+        <v>0.52</v>
       </c>
       <c r="P11" t="n">
-        <v>0.657</v>
+        <v>0.609</v>
       </c>
       <c r="Q11" t="n">
         <v>9</v>
@@ -1426,31 +1426,31 @@
         <v>0.75</v>
       </c>
       <c r="T11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U11" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="V11" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="W11" t="n">
         <v>12</v>
       </c>
       <c r="X11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y11" t="n">
         <v>2</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
@@ -1466,22 +1466,22 @@
         <v>23</v>
       </c>
       <c r="D12" t="n">
+        <v>17</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>131</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+      <c r="H12" t="n">
         <v>16</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>122</v>
-      </c>
-      <c r="G12" t="n">
-        <v>9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>15</v>
-      </c>
       <c r="I12" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1493,16 +1493,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.714</v>
       </c>
       <c r="P12" t="n">
-        <v>0.6</v>
+        <v>0.625</v>
       </c>
       <c r="Q12" t="n">
         <v>7</v>
@@ -1517,13 +1517,13 @@
         <v>4</v>
       </c>
       <c r="U12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X12" t="n">
         <v>4</v>
@@ -1538,7 +1538,7 @@
         <v>9</v>
       </c>
       <c r="AB12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -1554,31 +1554,31 @@
         <v>21</v>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I13" t="n">
-        <v>0.286</v>
+        <v>0.323</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="L13" t="n">
-        <v>0.25</v>
+        <v>0.316</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
@@ -1590,7 +1590,7 @@
         <v>0.333</v>
       </c>
       <c r="P13" t="n">
-        <v>0.357</v>
+        <v>0.419</v>
       </c>
       <c r="Q13" t="n">
         <v>4</v>
@@ -1605,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="V13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
@@ -1620,13 +1620,13 @@
         <v>6</v>
       </c>
       <c r="Z13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB13" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -1642,13 +1642,13 @@
         <v>24</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>4</v>
       </c>
       <c r="W14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB14" t="n">
         <v>2</v>
@@ -1811,11 +1811,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Udoka Azubuike</t>
+          <t>Malik Fitts</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" t="n">
         <v>4</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1862,13 +1862,13 @@
       </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>3</v>
       </c>
       <c r="V16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1880,13 +1880,13 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1895,28 +1895,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Malik Fitts</t>
+          <t>Udoka Azubuike</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
@@ -1925,13 +1927,17 @@
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
@@ -1940,31 +1946,31 @@
       </c>
       <c r="S17" t="inlineStr"/>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>4</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
         <v>2</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1972,77 +1978,77 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>5520</v>
+        <v>5760</v>
       </c>
       <c r="G18" t="n">
-        <v>937</v>
+        <v>987</v>
       </c>
       <c r="H18" t="n">
-        <v>1971</v>
+        <v>2059</v>
       </c>
       <c r="I18" t="n">
-        <v>0.475</v>
+        <v>0.479</v>
       </c>
       <c r="J18" t="n">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="K18" t="n">
-        <v>974</v>
+        <v>1028</v>
       </c>
       <c r="L18" t="n">
-        <v>0.369</v>
+        <v>0.374</v>
       </c>
       <c r="M18" t="n">
-        <v>578</v>
+        <v>603</v>
       </c>
       <c r="N18" t="n">
-        <v>997</v>
+        <v>1031</v>
       </c>
       <c r="O18" t="n">
-        <v>0.58</v>
+        <v>0.585</v>
       </c>
       <c r="P18" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.573</v>
       </c>
       <c r="Q18" t="n">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="R18" t="n">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="S18" t="n">
-        <v>0.784</v>
+        <v>0.782</v>
       </c>
       <c r="T18" t="n">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="U18" t="n">
-        <v>835</v>
+        <v>877</v>
       </c>
       <c r="V18" t="n">
-        <v>1066</v>
+        <v>1114</v>
       </c>
       <c r="W18" t="n">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="X18" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Y18" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Z18" t="n">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="AA18" t="n">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="AB18" t="n">
-        <v>2621</v>
+        <v>2757</v>
       </c>
     </row>
   </sheetData>
